--- a/Data/UHC-3000-OCT-2024.xlsx
+++ b/Data/UHC-3000-OCT-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geethanjali\Box\Payroll\INSURANCE OCT 2023_SEP 2024\UHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/dashboard-Tab 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE66DB85-C2EA-4735-A1D4-6ACA0A0525BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8FEA8-F252-734A-8B53-0EB46BAE6CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E88A51BF-2441-4D83-A7C8-E32A31AA93DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E88A51BF-2441-4D83-A7C8-E32A31AA93DB}"/>
   </bookViews>
   <sheets>
     <sheet name="invoice_805098990341" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,15 +1208,16 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N81"/>
+      <selection activeCell="F5" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,1880 +1261,1880 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A33" si="0">"0924216"</f>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"991746561"</f>
+        <v>991746561</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-381.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"991746561"</f>
+        <v>991746561</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1182.6400000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"991746561"</f>
+        <v>991746561</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1182.6400000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"991746561"</f>
+        <v>991746561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-381.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="str">
         <f>"987392482"</f>
         <v>987392482</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="str">
         <f>"983128472"</f>
         <v>983128472</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="str">
         <f>"988025532"</f>
         <v>988025532</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="str">
         <f>"987396233"</f>
         <v>987396233</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="str">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="str">
         <f>"987623586"</f>
         <v>987623586</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="str">
         <f>"989161663"</f>
         <v>989161663</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="str">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="str">
         <f>"983630889"</f>
         <v>983630889</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="str">
         <f>"989263466"</f>
         <v>989263466</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="str">
         <f>"989459221"</f>
         <v>989459221</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="str">
         <f>"982785550"</f>
         <v>982785550</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="str">
         <f>"989046490"</f>
         <v>989046490</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="str">
         <f>"990713576"</f>
         <v>990713576</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="str">
         <f>"996375397"</f>
         <v>996375397</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="str">
         <f>"991471493"</f>
         <v>991471493</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="str">
         <f>"980612098"</f>
         <v>980612098</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K20" t="s">
         <v>18</v>
       </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="str">
         <f>"980790552"</f>
         <v>980790552</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="str">
         <f>"991746561"</f>
         <v>991746561</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1182.6400000000001</v>
       </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="str">
-        <f>"991746561"</f>
-        <v>991746561</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1182.6400000000001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="str">
-        <f>"991746561"</f>
-        <v>991746561</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1182.6400000000001</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="str">
         <f>"994264490"</f>
         <v>994264490</v>
       </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K23" t="s">
         <v>18</v>
       </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="str">
         <f>"981678548"</f>
         <v>981678548</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="str">
         <f>"994666939"</f>
         <v>994666939</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="str">
         <f>"987373969"</f>
         <v>987373969</v>
       </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="str">
         <f>"985149464"</f>
         <v>985149464</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K27" t="s">
         <v>18</v>
       </c>
-      <c r="L25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="str">
         <f>"997780343"</f>
         <v>997780343</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="str">
         <f>"989705875"</f>
         <v>989705875</v>
       </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K29" t="s">
         <v>18</v>
       </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="str">
         <f>"984844964"</f>
         <v>984844964</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K30" t="s">
         <v>18</v>
       </c>
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="str">
         <f>"992279290"</f>
         <v>992279290</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="str">
         <f>"983440683"</f>
         <v>983440683</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K32" t="s">
         <v>18</v>
       </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="str">
         <f>"994325699"</f>
         <v>994325699</v>
       </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K33" t="s">
         <v>18</v>
       </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="str">
         <f>"991970284"</f>
         <v>991970284</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="L32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>0924216</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="str">
         <f>"990624144"</f>
         <v>990624144</v>
       </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="str">
-        <f t="shared" ref="A34:A65" si="1">"0924216"</f>
-        <v>0924216</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="str">
         <f>"996222852"</f>
         <v>996222852</v>
       </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="str">
         <f>"991384049"</f>
         <v>991384049</v>
       </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K37" t="s">
         <v>18</v>
       </c>
-      <c r="L35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="str">
         <f>"994437874"</f>
         <v>994437874</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>1182.6400000000001</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="str">
         <f>"988797433"</f>
         <v>988797433</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>839.3</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K39" t="s">
         <v>56</v>
       </c>
-      <c r="L37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="str">
         <f>"997976626"</f>
         <v>997976626</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>839.3</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K40" t="s">
         <v>56</v>
       </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
         <v>58</v>
       </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="str">
         <f>"980366265"</f>
         <v>980366265</v>
       </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>839.3</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K41" t="s">
         <v>56</v>
       </c>
-      <c r="L39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>59</v>
       </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="str">
         <f>"983686757"</f>
         <v>983686757</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>839.3</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K42" t="s">
         <v>56</v>
       </c>
-      <c r="L40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>60</v>
       </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="str">
         <f>"994496019"</f>
         <v>994496019</v>
       </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>839.3</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K43" t="s">
         <v>56</v>
       </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
         <v>61</v>
       </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="str">
         <f>"989924430"</f>
         <v>989924430</v>
       </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>839.3</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K44" t="s">
         <v>56</v>
       </c>
-      <c r="L42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="str">
         <f>"991689627"</f>
         <v>991689627</v>
       </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>839.3</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K45" t="s">
         <v>56</v>
       </c>
-      <c r="L43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
         <v>63</v>
       </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="str">
         <f>"983447090"</f>
         <v>983447090</v>
       </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>839.3</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K46" t="s">
         <v>56</v>
       </c>
-      <c r="L44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
         <v>64</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="str">
         <f>"991061693"</f>
         <v>991061693</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>724.85</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K47" t="s">
         <v>65</v>
       </c>
-      <c r="L45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="str">
         <f>"992123153"</f>
         <v>992123153</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>381.5</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K48" t="s">
         <v>67</v>
       </c>
-      <c r="L46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
         <v>68</v>
       </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="str">
         <f>"980342859"</f>
         <v>980342859</v>
       </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>381.5</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K49" t="s">
         <v>67</v>
       </c>
-      <c r="L47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
         <v>69</v>
       </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="str">
         <f>"985662949"</f>
         <v>985662949</v>
       </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>381.5</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K50" t="s">
         <v>67</v>
       </c>
-      <c r="L48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
         <v>70</v>
       </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="str">
         <f>"984449341"</f>
         <v>984449341</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>381.5</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K51" t="s">
         <v>67</v>
       </c>
-      <c r="L49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
         <v>71</v>
       </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="str">
         <f>"995760739"</f>
         <v>995760739</v>
       </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>381.5</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K52" t="s">
         <v>67</v>
       </c>
-      <c r="L50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
         <v>72</v>
       </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="str">
         <f>"984108096"</f>
         <v>984108096</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>381.5</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K53" t="s">
         <v>67</v>
       </c>
-      <c r="L51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
         <v>73</v>
       </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="str">
         <f>"987370175"</f>
         <v>987370175</v>
       </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>381.5</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K54" t="s">
         <v>67</v>
       </c>
-      <c r="L52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
         <v>74</v>
       </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="str">
         <f>"993737394"</f>
         <v>993737394</v>
       </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>381.5</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K55" t="s">
         <v>67</v>
       </c>
-      <c r="L53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>"0924216"</f>
+        <v>0924216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
         <v>75</v>
       </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="str">
         <f>"981331288"</f>
         <v>981331288</v>
       </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>381.5</v>
-      </c>
-      <c r="K54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" t="str">
-        <f>"991746561"</f>
-        <v>991746561</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>-381.5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>37</v>
-      </c>
-      <c r="K55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="str">
-        <f t="shared" si="1"/>
-        <v>0924216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" t="str">
-        <f>"991746561"</f>
-        <v>991746561</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>-381.5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>37</v>
       </c>
       <c r="K56" t="s">
         <v>67</v>
@@ -3142,9 +3143,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B57" t="s">
@@ -3176,9 +3177,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B58" t="s">
@@ -3210,9 +3211,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B59" t="s">
@@ -3244,9 +3245,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B60" t="s">
@@ -3278,9 +3279,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B61" t="s">
@@ -3312,9 +3313,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B62" t="s">
@@ -3346,9 +3347,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B63" t="s">
@@ -3380,9 +3381,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B64" t="s">
@@ -3414,9 +3415,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B65" t="s">
@@ -3448,9 +3449,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A81" si="2">"0924216"</f>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B66" t="s">
@@ -3482,9 +3483,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B67" t="s">
@@ -3516,9 +3517,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B68" t="s">
@@ -3550,9 +3551,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B69" t="s">
@@ -3584,9 +3585,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B70" t="s">
@@ -3618,9 +3619,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B71" t="s">
@@ -3652,9 +3653,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B72" t="s">
@@ -3686,9 +3687,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B73" t="s">
@@ -3720,9 +3721,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B74" t="s">
@@ -3754,9 +3755,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B75" t="s">
@@ -3788,9 +3789,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B76" t="s">
@@ -3822,9 +3823,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B77" t="s">
@@ -3856,9 +3857,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B78" t="s">
@@ -3890,9 +3891,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B79" t="s">
@@ -3924,9 +3925,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B80" t="s">
@@ -3958,9 +3959,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
+        <f>"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B81" t="s">
@@ -3993,6 +3994,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N81">
+    <sortCondition ref="E2:E81"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>